--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121362a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121362a.xlsx
@@ -1,37 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="dados" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="dados" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>unnamed: 1_level_0</t>
+  </si>
+  <si>
+    <t>menos de 1/4</t>
+  </si>
+  <si>
+    <t>1/4 a menos de 1/2</t>
+  </si>
+  <si>
+    <t>1/2 a menos de 1</t>
+  </si>
+  <si>
+    <t>1 a menos de 2</t>
+  </si>
+  <si>
+    <t>2 ou mais</t>
+  </si>
+  <si>
+    <t>sem rendimento (2)</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>7.839820725010317</t>
+  </si>
+  <si>
+    <t>3.183583938061539</t>
+  </si>
+  <si>
+    <t>3.1696245959027953</t>
+  </si>
+  <si>
+    <t>4.025243138483651</t>
+  </si>
+  <si>
+    <t>7.402854290771763</t>
+  </si>
+  <si>
+    <t>16.82155169104241</t>
+  </si>
+  <si>
+    <t>região metropolitana de belém</t>
+  </si>
+  <si>
+    <t>ceará</t>
+  </si>
+  <si>
+    <t>região metropolitana de fortaleza</t>
+  </si>
+  <si>
+    <t>pernambuco</t>
+  </si>
+  <si>
+    <t>região metropolitana de recife</t>
+  </si>
+  <si>
+    <t>bahia</t>
+  </si>
+  <si>
+    <t>região metropolitana de salvador</t>
+  </si>
+  <si>
+    <t>minas gerais</t>
+  </si>
+  <si>
+    <t>região metropolitana de belo horizonte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      rio de janeiro</t>
+  </si>
+  <si>
+    <t>região metropolitana do rio de janeiro</t>
+  </si>
+  <si>
+    <t>são paulo</t>
+  </si>
+  <si>
+    <t>região metropolitana de são paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       paraná</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  região metropolitana de curitiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      rio grande do sul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        região metropolitana de porto alegre</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +147,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,562 +463,504 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 1_level_0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Menos de 1/4 </t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1/4 a menos de 1/2 </t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1/2 a menos de 1 </t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>1 a menos de 2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 ou mais </t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Sem rendimento (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Pará</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>7.839820725010317</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>3.183583938061539</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>3.169624595902795</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>4.025243138483651</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>7.402854290771763</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>16.82155169104241</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Região Metropolitana de Belém</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>8.33</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4.7</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>3.5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>4.41</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>9.23</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>17.02</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Ceará</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>5.3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2.58</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>3.58</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3.24</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>7.54</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>12.31</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Região Metropolitana de Fortaleza</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>5.7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>3.77</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>3.12</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>4.06</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>7.52</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>13.78</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Pernambuco</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>5.14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3.43</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>3.46</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>3.16</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>7.46</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>11.76</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Região Metropolitana de Recife</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>5.59</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>3.9</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>3.25</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>3.72</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>7.77</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>13.7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Bahia</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>4.58</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2.86</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>2.41</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>3.43</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>5.73</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>15.53</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Região Metropolitana de Salvador</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>6.48</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>4.42</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>2.97</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>3.42</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>6.95</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>15.09</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Minas Gerais</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>7.34</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1.87</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>2.05</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>3.53</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>12.16</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Região Metropolitana de Belo Horizonte</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>11.03</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>6.09</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>3.99</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>3.48</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>5.63</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>16.52</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>7.02</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>3.84</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>2.46</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>2.03</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>3.55</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>12.56</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Região Metropolitana do Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>8.630000000000001</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>5.01</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>3.12</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>2.59</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>4.07</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>14.44</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>7.26</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>4.03</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>1.98</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>1.75</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>2.97</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>8.58</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Região Metropolitana de São Paulo</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>9.67</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>5.61</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>3.13</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>2.45</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>4.27</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>11.61</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       Paraná</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>11.59</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>5.25</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>3.01</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>2.41</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>4.59</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>13.11</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Região Metropolitana de Curitiba</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>18.95</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>8.609999999999999</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>4.98</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>3.54</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>5.49</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>17.32</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Rio Grande do Sul</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>7.76</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>5.25</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>2.83</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>2.14</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>3.23</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>13.97</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Região Metropolitana de Porto Alegre</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>9.609999999999999</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>5.42</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>3.19</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>2.33</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>4.25</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>14.07</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>